--- a/excelFiles/Holidays_List.xlsx
+++ b/excelFiles/Holidays_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vs_code\python\AI_DA_DFM-3\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A58AFD-EBE3-4F53-8D9D-8E30BAE25403}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6C2E6D-7C31-42E3-A915-8A07C332A3DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{40BFA594-9B57-475F-A9FB-CA0F34668E91}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Christmas</t>
+  </si>
+  <si>
+    <t>Cyclone Tauktae</t>
   </si>
 </sst>
 </file>
@@ -549,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BB0DA0-FDC9-4C44-A664-8937430297B2}">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="N91" sqref="N91"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1553,12 +1556,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
-        <v>44423</v>
+        <v>44332</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>10</v>
@@ -1566,166 +1569,199 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
-        <v>44438</v>
+        <v>44333</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
-        <v>44449</v>
+        <v>44334</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
-        <v>44484</v>
+        <v>44423</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
-        <v>44504</v>
+        <v>44438</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
-        <v>44555</v>
+        <v>44449</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
-        <v>44562</v>
+        <v>44484</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
-        <v>44575</v>
+        <v>44504</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
-        <v>44587</v>
+        <v>44555</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
-        <v>44637</v>
+        <v>44562</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
-        <v>44788</v>
+        <v>44575</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
-        <v>44791</v>
+        <v>44587</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C102" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="8">
+        <v>44637</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A103" s="8">
-        <v>44804</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
-        <v>44839</v>
+        <v>44788</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
+        <v>44791</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A106" s="8">
+        <v>44804</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="8">
+        <v>44839</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="8">
         <v>44889</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B108" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C108" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="8">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="8">
         <v>44920</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B109" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C109" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1735,8 +1771,8 @@
     <hyperlink ref="B59" r:id="rId2" display="https://publicholidays.in/christmas/" xr:uid="{69912E90-12A8-416A-97DB-386FFCAEAEBC}"/>
     <hyperlink ref="B73" r:id="rId3" display="https://publicholidays.in/christmas/" xr:uid="{4AC0A1E2-CC1D-4198-8C01-89AF000C2D00}"/>
     <hyperlink ref="B86" r:id="rId4" display="https://publicholidays.in/christmas/" xr:uid="{28B69EA3-260E-4544-82FD-0CFDCDB5F41C}"/>
-    <hyperlink ref="B96" r:id="rId5" display="https://publicholidays.in/christmas/" xr:uid="{77065E9D-5268-4C68-9891-B1B7249B97EF}"/>
-    <hyperlink ref="B106" r:id="rId6" display="https://publicholidays.in/christmas/" xr:uid="{FC9D9A2B-0323-43D4-BF64-96BE9AA63FB8}"/>
+    <hyperlink ref="B99" r:id="rId5" display="https://publicholidays.in/christmas/" xr:uid="{77065E9D-5268-4C68-9891-B1B7249B97EF}"/>
+    <hyperlink ref="B109" r:id="rId6" display="https://publicholidays.in/christmas/" xr:uid="{FC9D9A2B-0323-43D4-BF64-96BE9AA63FB8}"/>
     <hyperlink ref="B11" r:id="rId7" display="https://publicholidays.in/christmas/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
